--- a/01_Data/sam_qc_infor_neg.xlsx
+++ b/01_Data/sam_qc_infor_neg.xlsx
@@ -1,168 +1,171 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28712"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\RStudio\AML_project\Metabolome\01_Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF72FA68-BFCC-4AF4-B854-E2B6A82A5BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID num</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neg_MOLM13_cas_WT_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOLM13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOLM13_WT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neg_MOLM13_cas_WT_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neg_MOLM13_cas_WT_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neg_MOLM13_cas_2w_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOLM13_2w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neg_MOLM13_cas_2w_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neg_MOLM13_cas_6w_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOLM13_6w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neg_MOLM13_cas_6w_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neg_MOLM13_cas_6w_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neg_OCI_M2_cas_WT_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OCI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OCI_WT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neg_OCI_M2_cas_WT_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neg_OCI_M2_cas_WT_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neg_OCI_M2_cas_2w_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OCI_2w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neg_OCI_M2_cas_2w_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neg_OCI_M2_cas_2w_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neg_OCI_M2_cas_6w_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OCI_6w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neg_OCI_M2_cas_6w_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neg_OCI_M2_cas_6w_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neg_MV4_11_cas_WT_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MV4_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MV4_11_WT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neg_MV4_11_cas_WT_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neg_MV4_11_cas_WT_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neg_MV4_11_cas_2w_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MV4_11_2w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neg_MV4_11_cas_2w_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neg_MV4_11_cas_2w_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neg_MV4_11_cas_6w_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MV4_11_6w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neg_MV4_11_cas_6w_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neg_MV4_11_cas_6w_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neg_QC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neg_QC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neg_QC3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="41">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>Group name</t>
+  </si>
+  <si>
+    <t>ID num</t>
+  </si>
+  <si>
+    <t>neg_MOLM13_cas_WT_1</t>
+  </si>
+  <si>
+    <t>MOLM13</t>
+  </si>
+  <si>
+    <t>neg_MOLM13_cas_WT_2</t>
+  </si>
+  <si>
+    <t>neg_MOLM13_cas_WT_3</t>
+  </si>
+  <si>
+    <t>neg_MOLM13_cas_2w_2</t>
+  </si>
+  <si>
+    <t>neg_MOLM13_cas_2w_3</t>
+  </si>
+  <si>
+    <t>neg_MOLM13_cas_6w_1</t>
+  </si>
+  <si>
+    <t>neg_MOLM13_cas_6w_2</t>
+  </si>
+  <si>
+    <t>neg_MOLM13_cas_6w_3</t>
+  </si>
+  <si>
+    <t>neg_OCI_M2_cas_WT_1</t>
+  </si>
+  <si>
+    <t>OCI</t>
+  </si>
+  <si>
+    <t>neg_OCI_M2_cas_WT_2</t>
+  </si>
+  <si>
+    <t>neg_OCI_M2_cas_WT_3</t>
+  </si>
+  <si>
+    <t>neg_OCI_M2_cas_2w_1</t>
+  </si>
+  <si>
+    <t>neg_OCI_M2_cas_2w_2</t>
+  </si>
+  <si>
+    <t>neg_OCI_M2_cas_2w_3</t>
+  </si>
+  <si>
+    <t>neg_OCI_M2_cas_6w_1</t>
+  </si>
+  <si>
+    <t>neg_OCI_M2_cas_6w_2</t>
+  </si>
+  <si>
+    <t>neg_OCI_M2_cas_6w_3</t>
+  </si>
+  <si>
+    <t>neg_MV4_11_cas_WT_1</t>
+  </si>
+  <si>
+    <t>MV4_11</t>
+  </si>
+  <si>
+    <t>neg_MV4_11_cas_WT_2</t>
+  </si>
+  <si>
+    <t>neg_MV4_11_cas_WT_3</t>
+  </si>
+  <si>
+    <t>neg_MV4_11_cas_2w_1</t>
+  </si>
+  <si>
+    <t>neg_MV4_11_cas_2w_2</t>
+  </si>
+  <si>
+    <t>neg_MV4_11_cas_2w_3</t>
+  </si>
+  <si>
+    <t>neg_MV4_11_cas_6w_1</t>
+  </si>
+  <si>
+    <t>neg_MV4_11_cas_6w_2</t>
+  </si>
+  <si>
+    <t>neg_MV4_11_cas_6w_3</t>
+  </si>
+  <si>
+    <t>neg_QC1</t>
+  </si>
+  <si>
+    <t>QC</t>
+  </si>
+  <si>
+    <t>neg_QC2</t>
+  </si>
+  <si>
+    <t>neg_QC3</t>
+  </si>
+  <si>
+    <t>neg_OCI_M2_cas_4w_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>High</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Con</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -190,9 +193,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -474,14 +486,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -495,7 +512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -503,406 +520,421 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
+        <v>40</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
+        <v>40</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
+        <v>38</v>
+      </c>
+      <c r="D5">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>10</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="n">
+        <v>39</v>
+      </c>
+      <c r="D7">
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="n">
+        <v>39</v>
+      </c>
+      <c r="D8">
         <v>7</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="D9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="D10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18">
         <v>17</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19">
         <v>18</v>
       </c>
-      <c r="D11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21">
         <v>20</v>
       </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23">
         <v>22</v>
       </c>
-      <c r="D13" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
         <v>24</v>
       </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="C19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" t="n">
+      <c r="B26" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" t="s">
-        <v>30</v>
       </c>
       <c r="C26" t="s">
         <v>39</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>25</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
         <v>39</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>26</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" t="n">
+        <v>39</v>
+      </c>
+      <c r="D28">
         <v>27</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" t="n">
+        <v>34</v>
+      </c>
+      <c r="D29">
         <v>28</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" t="n">
+        <v>34</v>
+      </c>
+      <c r="D30">
         <v>29</v>
       </c>
     </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>